--- a/测试/院校库首页.xlsx
+++ b/测试/院校库首页.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6FA1E3C-6B28-4AD7-AE71-2E998BF2F6DE}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{169C6B2B-BD76-4F3D-B9CD-EBB2144D5F7E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12643" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="45">
   <si>
     <t>GET/POST ？</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -63,6 +63,141 @@
   </si>
   <si>
     <t>pageNum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/school/displaySchool</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户搜索后，返回结果页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/school/displaySchoolBySearch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>get</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>schoolProvince</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>String[]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>省份</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>schoolType</t>
+  </si>
+  <si>
+    <t>degreeType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>math</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>english</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>院校特性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学位类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>英语</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>directionName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>研究方向</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前页数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>将院校加入收藏夹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/school/addDirectionCollector</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>directionId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>院校的id值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>取消院校收藏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/school/deleteDirectionCollector</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>举例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全部/北京/北京、天津</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全部/985/985、211</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全部/学硕/学硕、专硕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全部/一/一、二</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不填/大数据/网络技术</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1/2/…</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -121,10 +256,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -405,22 +541,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.7109375" customWidth="1"/>
-    <col min="2" max="2" width="21.140625" customWidth="1"/>
-    <col min="3" max="3" width="13.2109375" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" customWidth="1"/>
-    <col min="6" max="6" width="11.78515625" customWidth="1"/>
+    <col min="1" max="1" width="24.125" customWidth="1"/>
+    <col min="2" max="2" width="28.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.25" customWidth="1"/>
+    <col min="4" max="4" width="14.5" customWidth="1"/>
+    <col min="5" max="5" width="21.25" customWidth="1"/>
+    <col min="6" max="7" width="11.75" customWidth="1"/>
+    <col min="8" max="8" width="12.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -434,27 +572,463 @@
         <v>2</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>9</v>
       </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
       <c r="C2" t="s">
         <v>8</v>
       </c>
       <c r="D2" t="s">
         <v>10</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" t="s">
+        <v>42</v>
+      </c>
+      <c r="F6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" t="s">
+        <v>34</v>
+      </c>
+      <c r="H10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" t="s">
+        <v>39</v>
+      </c>
+      <c r="F11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" t="s">
+        <v>13</v>
+      </c>
+      <c r="H11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" t="s">
+        <v>40</v>
+      </c>
+      <c r="F12" t="s">
+        <v>18</v>
+      </c>
+      <c r="G12" t="s">
+        <v>13</v>
+      </c>
+      <c r="H12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" t="s">
+        <v>41</v>
+      </c>
+      <c r="F13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14" t="s">
+        <v>42</v>
+      </c>
+      <c r="F14" t="s">
+        <v>18</v>
+      </c>
+      <c r="G14" t="s">
+        <v>13</v>
+      </c>
+      <c r="H14" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15" t="s">
+        <v>42</v>
+      </c>
+      <c r="F15" t="s">
+        <v>18</v>
+      </c>
+      <c r="G15" t="s">
+        <v>13</v>
+      </c>
+      <c r="H15" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D16" t="s">
+        <v>28</v>
+      </c>
+      <c r="E16" t="s">
+        <v>43</v>
+      </c>
+      <c r="F16" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" t="s">
+        <v>13</v>
+      </c>
+      <c r="H16" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>12</v>
+      </c>
+      <c r="G17" t="s">
+        <v>13</v>
+      </c>
+      <c r="H17" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18" t="s">
+        <v>33</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>12</v>
+      </c>
+      <c r="G18" t="s">
+        <v>34</v>
+      </c>
+      <c r="H18" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D19" t="s">
+        <v>17</v>
+      </c>
+      <c r="E19" t="s">
+        <v>39</v>
+      </c>
+      <c r="F19" t="s">
+        <v>18</v>
+      </c>
+      <c r="G19" t="s">
+        <v>13</v>
+      </c>
+      <c r="H19" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20" t="s">
+        <v>40</v>
+      </c>
+      <c r="F20" t="s">
+        <v>18</v>
+      </c>
+      <c r="G20" t="s">
+        <v>13</v>
+      </c>
+      <c r="H20" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21" t="s">
+        <v>41</v>
+      </c>
+      <c r="F21" t="s">
+        <v>18</v>
+      </c>
+      <c r="G21" t="s">
+        <v>13</v>
+      </c>
+      <c r="H21" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22" t="s">
+        <v>42</v>
+      </c>
+      <c r="F22" t="s">
+        <v>18</v>
+      </c>
+      <c r="G22" t="s">
+        <v>13</v>
+      </c>
+      <c r="H22" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D23" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23" t="s">
+        <v>42</v>
+      </c>
+      <c r="F23" t="s">
+        <v>18</v>
+      </c>
+      <c r="G23" t="s">
+        <v>13</v>
+      </c>
+      <c r="H23" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D24" t="s">
+        <v>28</v>
+      </c>
+      <c r="E24" t="s">
+        <v>43</v>
+      </c>
+      <c r="F24" t="s">
+        <v>12</v>
+      </c>
+      <c r="G24" t="s">
+        <v>13</v>
+      </c>
+      <c r="H24" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D25" t="s">
+        <v>10</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>12</v>
+      </c>
+      <c r="G25" t="s">
+        <v>13</v>
+      </c>
+      <c r="H25" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
